--- a/TP Final - Testing/ClinicaCajaBlanca.xlsx
+++ b/TP Final - Testing/ClinicaCajaBlanca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>Metodo calculoImporteAdicionales()</t>
   </si>
@@ -154,6 +154,10 @@
 listaDeInsumos = {}</t>
   </si>
   <si>
+    <t>a. Buscar la factura
+b. devolver 0</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -186,6 +190,10 @@
 listaDeInsumos = {}"</t>
   </si>
   <si>
+    <t>a. Buscar la factura
+b. devolver 0</t>
+  </si>
+  <si>
     <t>Escenario 3</t>
   </si>
   <si>
@@ -196,12 +204,26 @@
 listaDeInsumos = {}</t>
   </si>
   <si>
+    <t>a. Buscar factura
+b. Calcular diferencia de fechas entre la ingresada y la de la factura
+c. Calcular total de insumos
+d. Calcular prestaciones impares
+c. calcular importe total</t>
+  </si>
+  <si>
     <t>numeroDeFactura = 2, fechaDeSolicitud = 25/05/2011,
 listaDeInsumos = {}</t>
   </si>
   <si>
     <t>numeroDeFactura = 1, fechaDeSolicitud = 25/10/2011,
 listaDeInsumos = {100}</t>
+  </si>
+  <si>
+    <t>a. Buscar factura
+b. Calcular diferencia de fechas entre la ingresada y la de la factura
+c. Calcular total de insumos
+d. Calcular prestaciones impares
+c. calcular importe total</t>
   </si>
   <si>
     <t>Escenario 4</t>
@@ -239,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -285,6 +307,9 @@
     </font>
     <font>
       <b/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -303,6 +328,14 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -459,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -493,7 +526,7 @@
     <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -503,10 +536,10 @@
     <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -514,36 +547,54 @@
     <xf borderId="7" fillId="8" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="8" fillId="8" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="8" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="9" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="10" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="10" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="8" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="2" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="10" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="10" fillId="10" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +616,7 @@
     <xdr:ext cx="8743950" cy="10001250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -593,7 +644,7 @@
     <xdr:ext cx="5210175" cy="19507200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -822,7 +873,7 @@
     <col customWidth="1" min="2" max="2" width="8.71"/>
     <col customWidth="1" min="3" max="3" width="17.86"/>
     <col customWidth="1" min="4" max="4" width="46.86"/>
-    <col customWidth="1" min="5" max="5" width="30.29"/>
+    <col customWidth="1" min="5" max="5" width="57.57"/>
     <col customWidth="1" min="6" max="6" width="51.14"/>
     <col customWidth="1" min="7" max="7" width="172.71"/>
     <col customWidth="1" min="8" max="26" width="8.71"/>
@@ -1195,56 +1246,62 @@
       <c r="D111" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E111" s="30"/>
-      <c r="F111" s="31" t="s">
+      <c r="E111" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G111" s="32" t="s">
+      <c r="F111" s="30" t="s">
         <v>46</v>
+      </c>
+      <c r="G111" s="31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="18"/>
       <c r="B112" s="19"/>
-      <c r="C112" s="29">
+      <c r="C112" s="32">
         <v>2.0</v>
       </c>
       <c r="D112" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F112" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G112" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="E112" s="30"/>
-      <c r="F112" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G112" s="32" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="18"/>
       <c r="B113" s="19"/>
-      <c r="C113" s="29">
+      <c r="C113" s="32">
         <v>3.0</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E113" s="30"/>
-      <c r="F113" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G113" s="32" t="s">
+      <c r="F113" s="30" t="s">
         <v>46</v>
+      </c>
+      <c r="G113" s="31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1"/>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C116" s="23"/>
       <c r="D116" s="23"/>
@@ -1284,10 +1341,12 @@
       <c r="C119" s="34">
         <v>4.0</v>
       </c>
-      <c r="D119" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E119" s="35"/>
+      <c r="D119" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E119" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="F119" s="34">
         <v>0.0</v>
       </c>
@@ -1299,10 +1358,12 @@
       <c r="C120" s="34">
         <v>5.0</v>
       </c>
-      <c r="D120" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E120" s="35"/>
+      <c r="D120" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E120" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="F120" s="34">
         <v>0.0</v>
       </c>
@@ -1314,10 +1375,12 @@
       <c r="C121" s="34">
         <v>6.0</v>
       </c>
-      <c r="D121" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E121" s="35"/>
+      <c r="D121" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E121" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="F121" s="34">
         <v>0.0</v>
       </c>
@@ -1325,19 +1388,25 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="E122" s="37"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="E123" s="37"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="E124" s="37"/>
+    </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
+      <c r="E125" s="38"/>
       <c r="F125" s="23"/>
       <c r="G125" s="24"/>
     </row>
@@ -1346,7 +1415,7 @@
       <c r="B126" s="33"/>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
+      <c r="E126" s="39"/>
       <c r="F126" s="19"/>
       <c r="G126" s="20"/>
     </row>
@@ -1359,7 +1428,7 @@
       <c r="D127" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E127" s="26" t="s">
+      <c r="E127" s="40" t="s">
         <v>41</v>
       </c>
       <c r="F127" s="26" t="s">
@@ -1375,10 +1444,12 @@
       <c r="C128" s="34">
         <v>7.0</v>
       </c>
-      <c r="D128" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E128" s="35"/>
+      <c r="D128" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E128" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="F128" s="34">
         <v>420.0</v>
       </c>
@@ -1392,10 +1463,12 @@
       <c r="C129" s="34">
         <v>8.0</v>
       </c>
-      <c r="D129" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E129" s="35"/>
+      <c r="D129" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E129" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="F129" s="34">
         <v>0.0</v>
       </c>
@@ -1404,14 +1477,16 @@
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="C130" s="29">
+      <c r="C130" s="32">
         <v>9.0</v>
       </c>
-      <c r="D130" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E130" s="30"/>
-      <c r="F130" s="29">
+      <c r="D130" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E130" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F130" s="32">
         <v>520.0</v>
       </c>
       <c r="G130" s="29">
@@ -1419,31 +1494,35 @@
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="C131" s="36">
+      <c r="C131" s="42">
         <v>10.0</v>
       </c>
-      <c r="D131" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E131" s="38"/>
-      <c r="F131" s="37">
+      <c r="D131" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E131" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F131" s="43">
         <v>760.0</v>
       </c>
-      <c r="G131" s="37">
+      <c r="G131" s="43">
         <v>760.0</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="E132" s="37"/>
+    </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
+      <c r="E133" s="38"/>
       <c r="F133" s="23"/>
       <c r="G133" s="24"/>
     </row>
@@ -1452,7 +1531,7 @@
       <c r="B134" s="33"/>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
+      <c r="E134" s="39"/>
       <c r="F134" s="19"/>
       <c r="G134" s="20"/>
     </row>
@@ -1465,7 +1544,7 @@
       <c r="D135" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E135" s="26" t="s">
+      <c r="E135" s="40" t="s">
         <v>41</v>
       </c>
       <c r="F135" s="26" t="s">
@@ -1481,14 +1560,16 @@
       <c r="C136" s="34">
         <v>11.0</v>
       </c>
-      <c r="D136" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E136" s="35"/>
+      <c r="D136" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E136" s="36" t="s">
+        <v>62</v>
+      </c>
       <c r="F136" s="34">
         <v>240.0</v>
       </c>
-      <c r="G136" s="34">
+      <c r="G136" s="35">
         <v>240.0</v>
       </c>
     </row>
@@ -1497,10 +1578,12 @@
         <v>12.0</v>
       </c>
       <c r="D137" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E137" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E137" s="30"/>
-      <c r="F137" s="29">
+      <c r="F137" s="32">
         <v>340.0</v>
       </c>
       <c r="G137" s="29">
@@ -1511,28 +1594,32 @@
       <c r="C138" s="34">
         <v>13.0</v>
       </c>
-      <c r="D138" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E138" s="35"/>
+      <c r="D138" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E138" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="F138" s="34">
         <v>0.0</v>
       </c>
-      <c r="G138" s="34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="139" ht="15.75" customHeight="1"/>
+      <c r="G138" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="E139" s="37"/>
+    </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C140" s="23"/>
       <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
+      <c r="E140" s="38"/>
       <c r="F140" s="23"/>
       <c r="G140" s="24"/>
     </row>
@@ -1541,7 +1628,7 @@
       <c r="B141" s="33"/>
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
+      <c r="E141" s="39"/>
       <c r="F141" s="19"/>
       <c r="G141" s="20"/>
     </row>
@@ -1554,7 +1641,7 @@
       <c r="D142" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E142" s="26" t="s">
+      <c r="E142" s="40" t="s">
         <v>41</v>
       </c>
       <c r="F142" s="26" t="s">
@@ -1570,14 +1657,16 @@
       <c r="C143" s="34">
         <v>14.0</v>
       </c>
-      <c r="D143" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E143" s="35"/>
+      <c r="D143" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E143" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="F143" s="34">
         <v>0.0</v>
       </c>
-      <c r="G143" s="34">
+      <c r="G143" s="35">
         <v>0.0</v>
       </c>
     </row>

--- a/TP Final - Testing/ClinicaCajaBlanca.xlsx
+++ b/TP Final - Testing/ClinicaCajaBlanca.xlsx
@@ -215,7 +215,7 @@
 listaDeInsumos = {}</t>
   </si>
   <si>
-    <t>numeroDeFactura = 1, fechaDeSolicitud = 25/10/2010,
+    <t>numeroDeFactura = 1, fechaDeSolicitud = 25/11/2010,
 listaDeInsumos = {100}</t>
   </si>
   <si>
@@ -489,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -566,6 +566,9 @@
     <xf borderId="2" fillId="10" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -584,13 +587,13 @@
     <xf borderId="2" fillId="9" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="10" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1361,11 +1364,11 @@
       <c r="E120" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F120" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="G120" s="34">
-        <v>0.0</v>
+      <c r="F120" s="36">
+        <v>200.0</v>
+      </c>
+      <c r="G120" s="36">
+        <v>200.0</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
@@ -1386,13 +1389,13 @@
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="E122" s="36"/>
+      <c r="E122" s="37"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="E123" s="36"/>
+      <c r="E123" s="37"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="E124" s="36"/>
+      <c r="E124" s="37"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="21" t="s">
@@ -1403,7 +1406,7 @@
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
-      <c r="E125" s="37"/>
+      <c r="E125" s="38"/>
       <c r="F125" s="23"/>
       <c r="G125" s="24"/>
     </row>
@@ -1412,7 +1415,7 @@
       <c r="B126" s="33"/>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
-      <c r="E126" s="38"/>
+      <c r="E126" s="39"/>
       <c r="F126" s="19"/>
       <c r="G126" s="20"/>
     </row>
@@ -1425,7 +1428,7 @@
       <c r="D127" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E127" s="39" t="s">
+      <c r="E127" s="40" t="s">
         <v>41</v>
       </c>
       <c r="F127" s="26" t="s">
@@ -1477,38 +1480,38 @@
       <c r="C130" s="29">
         <v>9.0</v>
       </c>
-      <c r="D130" s="40" t="s">
+      <c r="D130" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E130" s="41" t="s">
+      <c r="E130" s="42" t="s">
         <v>62</v>
       </c>
       <c r="F130" s="29">
         <v>520.0</v>
       </c>
-      <c r="G130" s="29">
-        <v>660.0</v>
+      <c r="G130" s="41">
+        <v>520.0</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="C131" s="42">
+      <c r="C131" s="43">
         <v>10.0</v>
       </c>
-      <c r="D131" s="43" t="s">
+      <c r="D131" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="E131" s="44" t="s">
+      <c r="E131" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F131" s="43">
+      <c r="F131" s="44">
         <v>760.0</v>
       </c>
-      <c r="G131" s="43">
-        <v>760.0</v>
+      <c r="G131" s="44">
+        <v>620.0</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="E132" s="36"/>
+      <c r="E132" s="37"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="21" t="s">
@@ -1519,7 +1522,7 @@
       </c>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
-      <c r="E133" s="37"/>
+      <c r="E133" s="38"/>
       <c r="F133" s="23"/>
       <c r="G133" s="24"/>
     </row>
@@ -1528,7 +1531,7 @@
       <c r="B134" s="33"/>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
-      <c r="E134" s="38"/>
+      <c r="E134" s="39"/>
       <c r="F134" s="19"/>
       <c r="G134" s="20"/>
     </row>
@@ -1541,7 +1544,7 @@
       <c r="D135" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E135" s="39" t="s">
+      <c r="E135" s="40" t="s">
         <v>41</v>
       </c>
       <c r="F135" s="26" t="s">
@@ -1571,20 +1574,20 @@
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="C137" s="29">
+      <c r="C137" s="36">
         <v>12.0</v>
       </c>
-      <c r="D137" s="29" t="s">
+      <c r="D137" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E137" s="41" t="s">
+      <c r="E137" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F137" s="29">
+      <c r="F137" s="36">
         <v>340.0</v>
       </c>
-      <c r="G137" s="29">
-        <v>420.0</v>
+      <c r="G137" s="36">
+        <v>340.0</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
@@ -1605,7 +1608,7 @@
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="E139" s="36"/>
+      <c r="E139" s="37"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="21" t="s">
@@ -1616,7 +1619,7 @@
       </c>
       <c r="C140" s="23"/>
       <c r="D140" s="23"/>
-      <c r="E140" s="37"/>
+      <c r="E140" s="38"/>
       <c r="F140" s="23"/>
       <c r="G140" s="24"/>
     </row>
@@ -1625,7 +1628,7 @@
       <c r="B141" s="33"/>
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
-      <c r="E141" s="38"/>
+      <c r="E141" s="39"/>
       <c r="F141" s="19"/>
       <c r="G141" s="20"/>
     </row>
@@ -1638,7 +1641,7 @@
       <c r="D142" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E142" s="39" t="s">
+      <c r="E142" s="40" t="s">
         <v>41</v>
       </c>
       <c r="F142" s="26" t="s">
@@ -1660,8 +1663,8 @@
       <c r="E143" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="34">
-        <v>0.0</v>
+      <c r="F143" s="36">
+        <v>300.0</v>
       </c>
       <c r="G143" s="34">
         <v>0.0</v>
